--- a/ObjectDefinition_format.xlsx
+++ b/ObjectDefinition_format.xlsx
@@ -777,7 +777,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,25 +1155,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1181,18 +1193,18 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,48 +1212,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,6 +1223,27 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1262,14 +1253,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1603,16 +1603,14 @@
   </sheetPr>
   <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33:AA34"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:48">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1664,7 +1662,7 @@
       <c r="AU1" s="15"/>
       <c r="AV1" s="17"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:48">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1714,7 +1712,7 @@
       <c r="AU2" s="19"/>
       <c r="AV2" s="20"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:48">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1764,7 +1762,7 @@
       <c r="AU3" s="19"/>
       <c r="AV3" s="20"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:48">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1814,7 +1812,7 @@
       <c r="AU4" s="19"/>
       <c r="AV4" s="20"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:48">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1864,7 +1862,7 @@
       <c r="AU5" s="19"/>
       <c r="AV5" s="20"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1914,7 +1912,7 @@
       <c r="AU6" s="19"/>
       <c r="AV6" s="20"/>
     </row>
-    <row r="7" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:48" ht="13.5" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1966,7 +1964,7 @@
       <c r="AU7" s="22"/>
       <c r="AV7" s="23"/>
     </row>
-    <row r="8" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:48" ht="13.5" customHeight="1">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -2016,7 +2014,7 @@
       <c r="AU8" s="22"/>
       <c r="AV8" s="23"/>
     </row>
-    <row r="9" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48" ht="13.5" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -2066,7 +2064,7 @@
       <c r="AU9" s="22"/>
       <c r="AV9" s="23"/>
     </row>
-    <row r="10" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:48" ht="13.5" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2116,7 +2114,7 @@
       <c r="AU10" s="22"/>
       <c r="AV10" s="23"/>
     </row>
-    <row r="11" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:48" ht="13.5" customHeight="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -2166,7 +2164,7 @@
       <c r="AU11" s="22"/>
       <c r="AV11" s="23"/>
     </row>
-    <row r="12" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" ht="13.5" customHeight="1">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -2216,7 +2214,7 @@
       <c r="AU12" s="22"/>
       <c r="AV12" s="23"/>
     </row>
-    <row r="13" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48" ht="13.5" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2266,7 +2264,7 @@
       <c r="AU13" s="22"/>
       <c r="AV13" s="23"/>
     </row>
-    <row r="14" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:48" ht="13.5" customHeight="1">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -2316,7 +2314,7 @@
       <c r="AU14" s="22"/>
       <c r="AV14" s="23"/>
     </row>
-    <row r="15" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" ht="13.5" customHeight="1">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -2366,7 +2364,7 @@
       <c r="AU15" s="22"/>
       <c r="AV15" s="23"/>
     </row>
-    <row r="16" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48" ht="13.5" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2416,7 +2414,7 @@
       <c r="AU16" s="22"/>
       <c r="AV16" s="23"/>
     </row>
-    <row r="17" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:48" ht="13.5" customHeight="1">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -2466,7 +2464,7 @@
       <c r="AU17" s="22"/>
       <c r="AV17" s="23"/>
     </row>
-    <row r="18" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:48" ht="13.5" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -2516,7 +2514,7 @@
       <c r="AU18" s="22"/>
       <c r="AV18" s="23"/>
     </row>
-    <row r="19" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:48" ht="13.5" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -2566,7 +2564,7 @@
       <c r="AU19" s="19"/>
       <c r="AV19" s="20"/>
     </row>
-    <row r="20" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:48" ht="13.5" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -2616,7 +2614,7 @@
       <c r="AU20" s="19"/>
       <c r="AV20" s="20"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:48">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -2666,7 +2664,7 @@
       <c r="AU21" s="19"/>
       <c r="AV21" s="20"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:48">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2716,7 +2714,7 @@
       <c r="AU22" s="19"/>
       <c r="AV22" s="20"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:48">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -2766,7 +2764,7 @@
       <c r="AU23" s="19"/>
       <c r="AV23" s="20"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:48">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -2816,7 +2814,7 @@
       <c r="AU24" s="19"/>
       <c r="AV24" s="20"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:48">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -2866,7 +2864,7 @@
       <c r="AU25" s="19"/>
       <c r="AV25" s="20"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:48">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -2916,7 +2914,7 @@
       <c r="AU26" s="19"/>
       <c r="AV26" s="20"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:48">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -2966,7 +2964,7 @@
       <c r="AU27" s="19"/>
       <c r="AV27" s="20"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:48">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -3016,7 +3014,7 @@
       <c r="AU28" s="19"/>
       <c r="AV28" s="20"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:48">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -3074,7 +3072,7 @@
       <c r="AU29" s="33"/>
       <c r="AV29" s="20"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:48">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -3124,7 +3122,7 @@
       <c r="AU30" s="33"/>
       <c r="AV30" s="20"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:48">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -3182,7 +3180,7 @@
       <c r="AU31" s="35"/>
       <c r="AV31" s="20"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:48">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -3232,7 +3230,7 @@
       <c r="AU32" s="35"/>
       <c r="AV32" s="20"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:48">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -3288,7 +3286,7 @@
       <c r="AU33" s="33"/>
       <c r="AV33" s="20"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:48">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -3338,7 +3336,7 @@
       <c r="AU34" s="33"/>
       <c r="AV34" s="20"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:48">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -3390,7 +3388,7 @@
       <c r="AU35" s="35"/>
       <c r="AV35" s="20"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:48">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -3440,7 +3438,7 @@
       <c r="AU36" s="35"/>
       <c r="AV36" s="20"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:48">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -3490,7 +3488,7 @@
       <c r="AU37" s="24"/>
       <c r="AV37" s="20"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:48">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -3540,7 +3538,7 @@
       <c r="AU38" s="19"/>
       <c r="AV38" s="20"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:48">
       <c r="A39" s="25"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -3632,9 +3630,9 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="6" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3686,1735 +3684,1761 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:48" ht="19.5" thickBot="1">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42" t="s">
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42" t="s">
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42" t="s">
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-    </row>
-    <row r="8" spans="1:48" ht="19.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="43">
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="41"/>
+    </row>
+    <row r="8" spans="1:48" ht="19.5" thickTop="1">
+      <c r="A8" s="42">
         <v>1</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="50" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="49" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="44">
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="50">
         <v>42354</v>
       </c>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="43"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="43"/>
-    </row>
-    <row r="9" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="41">
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+    </row>
+    <row r="9" spans="1:48" ht="18.75">
+      <c r="A9" s="43">
         <f>A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="41"/>
-    </row>
-    <row r="10" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="41">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+    </row>
+    <row r="10" spans="1:48" ht="18.75">
+      <c r="A10" s="43">
         <f t="shared" ref="A10:A37" si="0">A9+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="47"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-    </row>
-    <row r="11" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="41">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+    </row>
+    <row r="11" spans="1:48" ht="18.75">
+      <c r="A11" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-    </row>
-    <row r="12" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="41">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+    </row>
+    <row r="12" spans="1:48" ht="18.75">
+      <c r="A12" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-    </row>
-    <row r="13" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="41">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+    </row>
+    <row r="13" spans="1:48" ht="18.75">
+      <c r="A13" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-    </row>
-    <row r="14" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="41">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+    </row>
+    <row r="14" spans="1:48" ht="18.75">
+      <c r="A14" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-    </row>
-    <row r="15" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="41">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+    </row>
+    <row r="15" spans="1:48" ht="18.75">
+      <c r="A15" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-    </row>
-    <row r="16" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="41">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="47"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+    </row>
+    <row r="16" spans="1:48" ht="18.75">
+      <c r="A16" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="47"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-    </row>
-    <row r="17" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="41">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+    </row>
+    <row r="17" spans="1:48" ht="18.75">
+      <c r="A17" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="47"/>
-      <c r="AL17" s="47"/>
-      <c r="AM17" s="47"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-    </row>
-    <row r="18" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="41">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="43"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="43"/>
+      <c r="AV17" s="43"/>
+    </row>
+    <row r="18" spans="1:48" ht="18.75">
+      <c r="A18" s="43">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-    </row>
-    <row r="19" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="41">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="43"/>
+    </row>
+    <row r="19" spans="1:48" ht="18.75">
+      <c r="A19" s="43">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-    </row>
-    <row r="20" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="41">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="43"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="43"/>
+    </row>
+    <row r="20" spans="1:48" ht="18.75">
+      <c r="A20" s="43">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="41"/>
-    </row>
-    <row r="21" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="41">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="43"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="43"/>
+      <c r="AS20" s="43"/>
+      <c r="AT20" s="43"/>
+      <c r="AU20" s="43"/>
+      <c r="AV20" s="43"/>
+    </row>
+    <row r="21" spans="1:48" ht="18.75">
+      <c r="A21" s="43">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="47"/>
-      <c r="AL21" s="47"/>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="41"/>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-    </row>
-    <row r="22" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="43"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="43"/>
+    </row>
+    <row r="22" spans="1:48" ht="18.75">
+      <c r="A22" s="43">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="41"/>
-      <c r="AV22" s="41"/>
-    </row>
-    <row r="23" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="41">
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="43"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="43"/>
+    </row>
+    <row r="23" spans="1:48" ht="18.75">
+      <c r="A23" s="43">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-    </row>
-    <row r="24" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="41">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="43"/>
+    </row>
+    <row r="24" spans="1:48" ht="18.75">
+      <c r="A24" s="43">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-    </row>
-    <row r="25" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="41">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43"/>
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="43"/>
+      <c r="AT24" s="43"/>
+      <c r="AU24" s="43"/>
+      <c r="AV24" s="43"/>
+    </row>
+    <row r="25" spans="1:48" ht="18.75">
+      <c r="A25" s="43">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-    </row>
-    <row r="26" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="41">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
+      <c r="AS25" s="43"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="43"/>
+    </row>
+    <row r="26" spans="1:48" ht="18.75">
+      <c r="A26" s="43">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="41"/>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="41"/>
-      <c r="AV26" s="41"/>
-    </row>
-    <row r="27" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="41">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="43"/>
+      <c r="AS26" s="43"/>
+      <c r="AT26" s="43"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="43"/>
+    </row>
+    <row r="27" spans="1:48" ht="18.75">
+      <c r="A27" s="43">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-    </row>
-    <row r="28" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="41">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="43"/>
+      <c r="AS27" s="43"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="43"/>
+    </row>
+    <row r="28" spans="1:48" ht="18.75">
+      <c r="A28" s="43">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="41"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-    </row>
-    <row r="29" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A29" s="41">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+    </row>
+    <row r="29" spans="1:48" ht="18.75">
+      <c r="A29" s="43">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="41"/>
-      <c r="AP29" s="41"/>
-      <c r="AQ29" s="41"/>
-      <c r="AR29" s="41"/>
-      <c r="AS29" s="41"/>
-      <c r="AT29" s="41"/>
-      <c r="AU29" s="41"/>
-      <c r="AV29" s="41"/>
-    </row>
-    <row r="30" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A30" s="41">
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="43"/>
+    </row>
+    <row r="30" spans="1:48" ht="18.75">
+      <c r="A30" s="43">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="41"/>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="41"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="41"/>
-      <c r="AV30" s="41"/>
-    </row>
-    <row r="31" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A31" s="41">
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="43"/>
+      <c r="AU30" s="43"/>
+      <c r="AV30" s="43"/>
+    </row>
+    <row r="31" spans="1:48" ht="18.75">
+      <c r="A31" s="43">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
-    </row>
-    <row r="32" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A32" s="41">
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+    </row>
+    <row r="32" spans="1:48" ht="18.75">
+      <c r="A32" s="43">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="41"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="41"/>
-      <c r="AV32" s="41"/>
-    </row>
-    <row r="33" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A33" s="41">
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
+    </row>
+    <row r="33" spans="1:48" ht="18.75">
+      <c r="A33" s="43">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-    </row>
-    <row r="34" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A34" s="41">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="43"/>
+      <c r="AP33" s="43"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="43"/>
+      <c r="AT33" s="43"/>
+      <c r="AU33" s="43"/>
+      <c r="AV33" s="43"/>
+    </row>
+    <row r="34" spans="1:48" ht="18.75">
+      <c r="A34" s="43">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="45"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-    </row>
-    <row r="35" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A35" s="41">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="43"/>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="43"/>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="43"/>
+      <c r="AU34" s="43"/>
+      <c r="AV34" s="43"/>
+    </row>
+    <row r="35" spans="1:48" ht="18.75">
+      <c r="A35" s="43">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="45"/>
-      <c r="AJ35" s="45"/>
-      <c r="AK35" s="45"/>
-      <c r="AL35" s="45"/>
-      <c r="AM35" s="45"/>
-      <c r="AN35" s="45"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-    </row>
-    <row r="36" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A36" s="41">
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="43"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="43"/>
+      <c r="AS35" s="43"/>
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="43"/>
+      <c r="AV35" s="43"/>
+    </row>
+    <row r="36" spans="1:48" ht="18.75">
+      <c r="A36" s="43">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="45"/>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="45"/>
-      <c r="AN36" s="45"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
-    </row>
-    <row r="37" spans="1:48" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A37" s="41">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="49"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="43"/>
+      <c r="AP36" s="43"/>
+      <c r="AQ36" s="43"/>
+      <c r="AR36" s="43"/>
+      <c r="AS36" s="43"/>
+      <c r="AT36" s="43"/>
+      <c r="AU36" s="43"/>
+      <c r="AV36" s="43"/>
+    </row>
+    <row r="37" spans="1:48" ht="18.75">
+      <c r="A37" s="43">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="41"/>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41"/>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="49"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="43"/>
+      <c r="AP37" s="43"/>
+      <c r="AQ37" s="43"/>
+      <c r="AR37" s="43"/>
+      <c r="AS37" s="43"/>
+      <c r="AT37" s="43"/>
+      <c r="AU37" s="43"/>
+      <c r="AV37" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AS29:AV29"/>
+    <mergeCell ref="AS30:AV30"/>
+    <mergeCell ref="AS31:AV31"/>
+    <mergeCell ref="AS32:AV32"/>
+    <mergeCell ref="AS15:AV15"/>
+    <mergeCell ref="AS16:AV16"/>
+    <mergeCell ref="AS17:AV17"/>
+    <mergeCell ref="AS18:AV18"/>
+    <mergeCell ref="AS19:AV19"/>
+    <mergeCell ref="AS20:AV20"/>
+    <mergeCell ref="AS33:AV33"/>
+    <mergeCell ref="AS34:AV34"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AO19:AR19"/>
+    <mergeCell ref="AO20:AR20"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AO15:AR15"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="AO17:AR17"/>
+    <mergeCell ref="AO18:AR18"/>
+    <mergeCell ref="AO32:AR32"/>
+    <mergeCell ref="AO33:AR33"/>
+    <mergeCell ref="AO34:AR34"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AO29:AR29"/>
+    <mergeCell ref="AO30:AR30"/>
+    <mergeCell ref="O34:AN34"/>
+    <mergeCell ref="O35:AN35"/>
+    <mergeCell ref="O36:AN36"/>
+    <mergeCell ref="O37:AN37"/>
+    <mergeCell ref="O27:AN27"/>
+    <mergeCell ref="O28:AN28"/>
+    <mergeCell ref="O29:AN29"/>
+    <mergeCell ref="O30:AN30"/>
+    <mergeCell ref="O31:AN31"/>
+    <mergeCell ref="O32:AN32"/>
+    <mergeCell ref="O25:AN25"/>
+    <mergeCell ref="O26:AN26"/>
+    <mergeCell ref="O15:AN15"/>
+    <mergeCell ref="O16:AN16"/>
+    <mergeCell ref="O17:AN17"/>
+    <mergeCell ref="O18:AN18"/>
+    <mergeCell ref="O19:AN19"/>
+    <mergeCell ref="O20:AN20"/>
+    <mergeCell ref="O33:AN33"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G30:N30"/>
     <mergeCell ref="G23:N23"/>
     <mergeCell ref="G24:N24"/>
     <mergeCell ref="G13:N13"/>
@@ -5439,100 +5463,74 @@
     <mergeCell ref="O23:AN23"/>
     <mergeCell ref="O24:AN24"/>
     <mergeCell ref="G7:N7"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="O25:AN25"/>
-    <mergeCell ref="O26:AN26"/>
-    <mergeCell ref="O15:AN15"/>
-    <mergeCell ref="O16:AN16"/>
-    <mergeCell ref="O17:AN17"/>
-    <mergeCell ref="O18:AN18"/>
-    <mergeCell ref="O19:AN19"/>
-    <mergeCell ref="O20:AN20"/>
-    <mergeCell ref="O33:AN33"/>
-    <mergeCell ref="O34:AN34"/>
-    <mergeCell ref="O35:AN35"/>
-    <mergeCell ref="O36:AN36"/>
-    <mergeCell ref="O37:AN37"/>
-    <mergeCell ref="O27:AN27"/>
-    <mergeCell ref="O28:AN28"/>
-    <mergeCell ref="O29:AN29"/>
-    <mergeCell ref="O30:AN30"/>
-    <mergeCell ref="O31:AN31"/>
-    <mergeCell ref="O32:AN32"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AO15:AR15"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="AO17:AR17"/>
-    <mergeCell ref="AO18:AR18"/>
-    <mergeCell ref="AO32:AR32"/>
-    <mergeCell ref="AO33:AR33"/>
-    <mergeCell ref="AO34:AR34"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AO29:AR29"/>
-    <mergeCell ref="AO30:AR30"/>
-    <mergeCell ref="AS7:AV7"/>
-    <mergeCell ref="AS8:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AO31:AR31"/>
-    <mergeCell ref="AO19:AR19"/>
-    <mergeCell ref="AO20:AR20"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AS29:AV29"/>
-    <mergeCell ref="AS30:AV30"/>
-    <mergeCell ref="AS31:AV31"/>
-    <mergeCell ref="AS32:AV32"/>
-    <mergeCell ref="AS15:AV15"/>
-    <mergeCell ref="AS16:AV16"/>
-    <mergeCell ref="AS17:AV17"/>
-    <mergeCell ref="AS18:AV18"/>
-    <mergeCell ref="AS19:AV19"/>
-    <mergeCell ref="AS20:AV20"/>
-    <mergeCell ref="AS33:AV33"/>
-    <mergeCell ref="AS34:AV34"/>
-    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5553,122 +5551,122 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="H1" s="51" t="s">
+    <row r="1" spans="1:48">
+      <c r="H1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="45" t="str">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="49" t="str">
         <f>表紙!N29</f>
         <v>システム名を書く</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="51" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="45" t="str">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="49" t="str">
         <f>表紙!N31</f>
         <v>myidentitytec05__JavaUnitTest__c</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="51" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="52">
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="62">
         <v>42354</v>
       </c>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="H2" s="51" t="s">
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+    </row>
+    <row r="2" spans="1:48">
+      <c r="H2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="45" t="str">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="49" t="str">
         <f>表紙!G7</f>
         <v>オブジェクト定義書</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="51" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="45" t="str">
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="49" t="str">
         <f>表紙!N33</f>
         <v>Java単体試験</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+    </row>
+    <row r="3" spans="1:48">
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -5685,39 +5683,39 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="45" t="str">
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="49" t="str">
         <f ca="1">MID(CELL("filename",$A$1),FIND("]",CELL("filename",$A$1))+1,31)</f>
         <v>オブジェクト定義</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="51" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+    </row>
+    <row r="4" spans="1:48">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -5750,18 +5748,18 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-      <c r="AN4" s="51" t="s">
+      <c r="AN4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+    </row>
+    <row r="6" spans="1:48">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -5813,7 +5811,7 @@
       <c r="AU6" s="6"/>
       <c r="AV6" s="7"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:48">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -5863,259 +5861,259 @@
       <c r="AU7" s="9"/>
       <c r="AV7" s="10"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:48">
       <c r="A8" s="8"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="60"/>
+      <c r="AU8" s="60"/>
       <c r="AV8" s="10"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48">
       <c r="A9" s="8"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53"/>
-      <c r="AU9" s="53"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
       <c r="AV9" s="10"/>
     </row>
-    <row r="10" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:48" ht="14.25" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
       <c r="AV10" s="10"/>
     </row>
-    <row r="11" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:48" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
       <c r="AV11" s="10"/>
     </row>
-    <row r="12" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="53"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="60"/>
+      <c r="AU12" s="60"/>
       <c r="AV12" s="10"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="D13" s="9"/>
@@ -6164,7 +6162,7 @@
       <c r="AU13" s="9"/>
       <c r="AV13" s="10"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:48">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -6216,7 +6214,7 @@
       <c r="AU14" s="6"/>
       <c r="AV14" s="7"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6266,37 +6264,37 @@
       <c r="AU15" s="9"/>
       <c r="AV15" s="10"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="54" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="56"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="53"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -6320,7 +6318,7 @@
       <c r="AU16" s="9"/>
       <c r="AV16" s="10"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:48">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="57" t="s">
@@ -6334,21 +6332,21 @@
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
       <c r="K17" s="59"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="48"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="47"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -6372,7 +6370,7 @@
       <c r="AU17" s="9"/>
       <c r="AV17" s="10"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:48">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="57" t="s">
@@ -6386,21 +6384,21 @@
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
       <c r="K18" s="59"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="48"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="47"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -6424,7 +6422,7 @@
       <c r="AU18" s="9"/>
       <c r="AV18" s="10"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:48">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="57" t="s">
@@ -6438,21 +6436,21 @@
       <c r="I19" s="58"/>
       <c r="J19" s="58"/>
       <c r="K19" s="59"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="48"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="47"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -6476,7 +6474,7 @@
       <c r="AU19" s="9"/>
       <c r="AV19" s="10"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:48">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="57" t="s">
@@ -6490,21 +6488,21 @@
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
       <c r="K20" s="59"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="48"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="47"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
@@ -6528,7 +6526,7 @@
       <c r="AU20" s="9"/>
       <c r="AV20" s="10"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:48">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="57" t="s">
@@ -6542,21 +6540,21 @@
       <c r="I21" s="58"/>
       <c r="J21" s="58"/>
       <c r="K21" s="59"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="48"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -6580,7 +6578,7 @@
       <c r="AU21" s="9"/>
       <c r="AV21" s="10"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:48">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="57" t="s">
@@ -6594,21 +6592,21 @@
       <c r="I22" s="58"/>
       <c r="J22" s="58"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="48"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="47"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -6632,7 +6630,7 @@
       <c r="AU22" s="9"/>
       <c r="AV22" s="10"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:48">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="57" t="s">
@@ -6646,21 +6644,21 @@
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
       <c r="K23" s="59"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="48"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="47"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -6684,7 +6682,7 @@
       <c r="AU23" s="9"/>
       <c r="AV23" s="10"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:48">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -6734,7 +6732,7 @@
       <c r="AU24" s="12"/>
       <c r="AV24" s="13"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:48">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -6786,7 +6784,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="7"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:48">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -6836,37 +6834,37 @@
       <c r="AU26" s="9"/>
       <c r="AV26" s="10"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:48">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="54" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="56"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="53"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -6890,7 +6888,7 @@
       <c r="AU27" s="9"/>
       <c r="AV27" s="10"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:48">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="57" t="s">
@@ -6904,21 +6902,21 @@
       <c r="I28" s="58"/>
       <c r="J28" s="58"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="48"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="47"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
@@ -6942,7 +6940,7 @@
       <c r="AU28" s="9"/>
       <c r="AV28" s="10"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:48">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="57" t="s">
@@ -6956,21 +6954,21 @@
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
       <c r="K29" s="59"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="48"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
@@ -6994,7 +6992,7 @@
       <c r="AU29" s="9"/>
       <c r="AV29" s="10"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:48">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="57" t="s">
@@ -7008,21 +7006,21 @@
       <c r="I30" s="58"/>
       <c r="J30" s="58"/>
       <c r="K30" s="59"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="48"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="47"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -7046,7 +7044,7 @@
       <c r="AU30" s="9"/>
       <c r="AV30" s="10"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:48">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="57" t="s">
@@ -7060,21 +7058,21 @@
       <c r="I31" s="58"/>
       <c r="J31" s="58"/>
       <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="62"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="56"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -7098,7 +7096,7 @@
       <c r="AU31" s="9"/>
       <c r="AV31" s="10"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:48">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -7150,16 +7148,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="L27:Z27"/>
-    <mergeCell ref="L28:Z28"/>
-    <mergeCell ref="L29:Z29"/>
-    <mergeCell ref="L30:Z30"/>
-    <mergeCell ref="L31:Z31"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="B8:AU12"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C20:K20"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="C23:K23"/>
@@ -7172,40 +7183,30 @@
     <mergeCell ref="L23:Z23"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="L19:Z19"/>
-    <mergeCell ref="B8:AU12"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:W2"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L27:Z27"/>
+    <mergeCell ref="L28:Z28"/>
+    <mergeCell ref="L29:Z29"/>
+    <mergeCell ref="L30:Z30"/>
+    <mergeCell ref="L31:Z31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L29:Z29">
       <formula1>"テキスト,自動採番"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:Z21">
       <formula1>"公開（更新可能）,公開（参照のみ）,非公開,親レコードに連動"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17:Z20 L22:Z23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17:Z20 L23:Z23">
       <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L22:Z22">
+      <formula1>"開発中,リリース済"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7227,7 +7228,7 @@
       <selection pane="bottomRight" activeCell="X8" sqref="X8:Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="28" width="3.625" style="1"/>
     <col min="29" max="40" width="3.625" style="1" customWidth="1" collapsed="1"/>
@@ -7235,117 +7236,117 @@
     <col min="53" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" x14ac:dyDescent="0.45">
-      <c r="H1" s="51" t="s">
+    <row r="1" spans="1:127">
+      <c r="H1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="45" t="str">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="49" t="str">
         <f>表紙!N29</f>
         <v>システム名を書く</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="51" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="45" t="str">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="49" t="str">
         <f>表紙!N31</f>
         <v>myidentitytec05__JavaUnitTest__c</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="51" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="52">
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="62">
         <v>42354</v>
       </c>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-    </row>
-    <row r="2" spans="1:127" x14ac:dyDescent="0.45">
-      <c r="H2" s="51" t="s">
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+    </row>
+    <row r="2" spans="1:127">
+      <c r="H2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="45" t="str">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="49" t="str">
         <f>表紙!G7</f>
         <v>オブジェクト定義書</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="51" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="45" t="str">
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="49" t="str">
         <f>表紙!N33</f>
         <v>Java単体試験</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-    </row>
-    <row r="3" spans="1:127" x14ac:dyDescent="0.45">
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+    </row>
+    <row r="3" spans="1:127">
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -7362,39 +7363,39 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="45" t="str">
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="49" t="str">
         <f ca="1">MID(CELL("filename",$A$1),FIND("]",CELL("filename",$A$1))+1,31)</f>
         <v>項目定義</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="51" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-    </row>
-    <row r="4" spans="1:127" x14ac:dyDescent="0.45">
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+    </row>
+    <row r="4" spans="1:127">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -7427,487 +7428,477 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-      <c r="AN4" s="51" t="s">
+      <c r="AN4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-    </row>
-    <row r="6" spans="1:127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+    </row>
+    <row r="6" spans="1:127" ht="13.5" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="68"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="68"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="74"/>
       <c r="R6" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="84"/>
       <c r="X6" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="68"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="74"/>
       <c r="AA6" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AB6" s="68"/>
+      <c r="AB6" s="74"/>
       <c r="AC6" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
       <c r="AO6" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="76"/>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78"/>
+      <c r="AV6" s="78"/>
+      <c r="AW6" s="78"/>
+      <c r="AX6" s="78"/>
+      <c r="AY6" s="78"/>
+      <c r="AZ6" s="78"/>
       <c r="BA6" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="66" t="s">
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="66" t="s">
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="BF6" s="68"/>
-      <c r="BG6" s="83" t="s">
+      <c r="BF6" s="74"/>
+      <c r="BG6" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="BH6" s="83"/>
-      <c r="BI6" s="83"/>
-      <c r="BJ6" s="83"/>
-      <c r="BK6" s="72" t="s">
+      <c r="BH6" s="80"/>
+      <c r="BI6" s="80"/>
+      <c r="BJ6" s="80"/>
+      <c r="BK6" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="BL6" s="72"/>
-      <c r="BM6" s="72"/>
-      <c r="BN6" s="72"/>
-      <c r="BO6" s="72"/>
-      <c r="BP6" s="72"/>
-      <c r="BQ6" s="72"/>
-      <c r="BR6" s="66" t="s">
+      <c r="BL6" s="66"/>
+      <c r="BM6" s="66"/>
+      <c r="BN6" s="66"/>
+      <c r="BO6" s="66"/>
+      <c r="BP6" s="66"/>
+      <c r="BQ6" s="66"/>
+      <c r="BR6" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="BS6" s="68"/>
-      <c r="BT6" s="72" t="s">
+      <c r="BS6" s="74"/>
+      <c r="BT6" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="BU6" s="72"/>
-      <c r="BV6" s="72"/>
-      <c r="BW6" s="72"/>
-      <c r="BX6" s="72"/>
-      <c r="BY6" s="72"/>
-      <c r="BZ6" s="72"/>
-      <c r="CA6" s="72" t="s">
+      <c r="BU6" s="66"/>
+      <c r="BV6" s="66"/>
+      <c r="BW6" s="66"/>
+      <c r="BX6" s="66"/>
+      <c r="BY6" s="66"/>
+      <c r="BZ6" s="66"/>
+      <c r="CA6" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="CB6" s="72"/>
-      <c r="CC6" s="72"/>
-      <c r="CD6" s="72"/>
-      <c r="CE6" s="72"/>
-      <c r="CF6" s="72"/>
-      <c r="CG6" s="72"/>
-      <c r="CH6" s="72" t="s">
+      <c r="CB6" s="66"/>
+      <c r="CC6" s="66"/>
+      <c r="CD6" s="66"/>
+      <c r="CE6" s="66"/>
+      <c r="CF6" s="66"/>
+      <c r="CG6" s="66"/>
+      <c r="CH6" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="CI6" s="72"/>
-      <c r="CJ6" s="72"/>
-      <c r="CK6" s="72"/>
-      <c r="CL6" s="72"/>
-      <c r="CM6" s="72"/>
-      <c r="CN6" s="72"/>
-      <c r="CO6" s="66" t="s">
+      <c r="CI6" s="66"/>
+      <c r="CJ6" s="66"/>
+      <c r="CK6" s="66"/>
+      <c r="CL6" s="66"/>
+      <c r="CM6" s="66"/>
+      <c r="CN6" s="66"/>
+      <c r="CO6" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="CP6" s="76"/>
-      <c r="CQ6" s="76"/>
-      <c r="CR6" s="68"/>
-      <c r="CS6" s="66" t="s">
+      <c r="CP6" s="78"/>
+      <c r="CQ6" s="78"/>
+      <c r="CR6" s="74"/>
+      <c r="CS6" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="CT6" s="76"/>
-      <c r="CU6" s="76"/>
-      <c r="CV6" s="68"/>
-      <c r="CW6" s="66" t="s">
+      <c r="CT6" s="78"/>
+      <c r="CU6" s="78"/>
+      <c r="CV6" s="74"/>
+      <c r="CW6" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="CX6" s="76"/>
-      <c r="CY6" s="76"/>
-      <c r="CZ6" s="68"/>
-      <c r="DA6" s="72" t="s">
+      <c r="CX6" s="78"/>
+      <c r="CY6" s="78"/>
+      <c r="CZ6" s="74"/>
+      <c r="DA6" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="DB6" s="72"/>
-      <c r="DC6" s="72"/>
-      <c r="DD6" s="72"/>
-      <c r="DE6" s="72"/>
-      <c r="DF6" s="72"/>
-      <c r="DG6" s="72"/>
-      <c r="DH6" s="66" t="s">
+      <c r="DB6" s="66"/>
+      <c r="DC6" s="66"/>
+      <c r="DD6" s="66"/>
+      <c r="DE6" s="66"/>
+      <c r="DF6" s="66"/>
+      <c r="DG6" s="66"/>
+      <c r="DH6" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="DI6" s="68"/>
-      <c r="DJ6" s="66" t="s">
+      <c r="DI6" s="74"/>
+      <c r="DJ6" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="DK6" s="68"/>
-      <c r="DL6" s="66" t="s">
+      <c r="DK6" s="74"/>
+      <c r="DL6" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="DM6" s="67"/>
-      <c r="DN6" s="67"/>
-      <c r="DO6" s="67"/>
-      <c r="DP6" s="67"/>
-      <c r="DQ6" s="68"/>
-      <c r="DR6" s="66" t="s">
+      <c r="DM6" s="85"/>
+      <c r="DN6" s="85"/>
+      <c r="DO6" s="85"/>
+      <c r="DP6" s="85"/>
+      <c r="DQ6" s="74"/>
+      <c r="DR6" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="DS6" s="67"/>
-      <c r="DT6" s="67"/>
-      <c r="DU6" s="67"/>
-      <c r="DV6" s="67"/>
-      <c r="DW6" s="68"/>
-    </row>
-    <row r="7" spans="1:127" x14ac:dyDescent="0.45">
+      <c r="DS6" s="85"/>
+      <c r="DT6" s="85"/>
+      <c r="DU6" s="85"/>
+      <c r="DV6" s="85"/>
+      <c r="DW6" s="74"/>
+    </row>
+    <row r="7" spans="1:127">
       <c r="A7" s="4"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="70"/>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="71"/>
-      <c r="BC7" s="69"/>
-      <c r="BD7" s="71"/>
-      <c r="BE7" s="69"/>
-      <c r="BF7" s="71"/>
-      <c r="BG7" s="83"/>
-      <c r="BH7" s="83"/>
-      <c r="BI7" s="83"/>
-      <c r="BJ7" s="83"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="72"/>
-      <c r="BN7" s="72"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="72"/>
-      <c r="BQ7" s="72"/>
-      <c r="BR7" s="69"/>
-      <c r="BS7" s="71"/>
-      <c r="BT7" s="72"/>
-      <c r="BU7" s="72"/>
-      <c r="BV7" s="72"/>
-      <c r="BW7" s="72"/>
-      <c r="BX7" s="72"/>
-      <c r="BY7" s="72"/>
-      <c r="BZ7" s="72"/>
-      <c r="CA7" s="72"/>
-      <c r="CB7" s="72"/>
-      <c r="CC7" s="72"/>
-      <c r="CD7" s="72"/>
-      <c r="CE7" s="72"/>
-      <c r="CF7" s="72"/>
-      <c r="CG7" s="72"/>
-      <c r="CH7" s="72"/>
-      <c r="CI7" s="72"/>
-      <c r="CJ7" s="72"/>
-      <c r="CK7" s="72"/>
-      <c r="CL7" s="72"/>
-      <c r="CM7" s="72"/>
-      <c r="CN7" s="72"/>
-      <c r="CO7" s="69"/>
-      <c r="CP7" s="70"/>
-      <c r="CQ7" s="70"/>
-      <c r="CR7" s="71"/>
-      <c r="CS7" s="69"/>
-      <c r="CT7" s="70"/>
-      <c r="CU7" s="70"/>
-      <c r="CV7" s="71"/>
-      <c r="CW7" s="69"/>
-      <c r="CX7" s="70"/>
-      <c r="CY7" s="70"/>
-      <c r="CZ7" s="71"/>
-      <c r="DA7" s="72"/>
-      <c r="DB7" s="72"/>
-      <c r="DC7" s="72"/>
-      <c r="DD7" s="72"/>
-      <c r="DE7" s="72"/>
-      <c r="DF7" s="72"/>
-      <c r="DG7" s="72"/>
-      <c r="DH7" s="69"/>
-      <c r="DI7" s="71"/>
-      <c r="DJ7" s="69"/>
-      <c r="DK7" s="71"/>
-      <c r="DL7" s="69"/>
-      <c r="DM7" s="70"/>
-      <c r="DN7" s="70"/>
-      <c r="DO7" s="70"/>
-      <c r="DP7" s="70"/>
-      <c r="DQ7" s="71"/>
-      <c r="DR7" s="69"/>
-      <c r="DS7" s="70"/>
-      <c r="DT7" s="70"/>
-      <c r="DU7" s="70"/>
-      <c r="DV7" s="70"/>
-      <c r="DW7" s="71"/>
-    </row>
-    <row r="8" spans="1:127" x14ac:dyDescent="0.45">
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="79"/>
+      <c r="AQ7" s="79"/>
+      <c r="AR7" s="79"/>
+      <c r="AS7" s="79"/>
+      <c r="AT7" s="79"/>
+      <c r="AU7" s="79"/>
+      <c r="AV7" s="79"/>
+      <c r="AW7" s="79"/>
+      <c r="AX7" s="79"/>
+      <c r="AY7" s="79"/>
+      <c r="AZ7" s="79"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="76"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="76"/>
+      <c r="BE7" s="75"/>
+      <c r="BF7" s="76"/>
+      <c r="BG7" s="80"/>
+      <c r="BH7" s="80"/>
+      <c r="BI7" s="80"/>
+      <c r="BJ7" s="80"/>
+      <c r="BK7" s="66"/>
+      <c r="BL7" s="66"/>
+      <c r="BM7" s="66"/>
+      <c r="BN7" s="66"/>
+      <c r="BO7" s="66"/>
+      <c r="BP7" s="66"/>
+      <c r="BQ7" s="66"/>
+      <c r="BR7" s="75"/>
+      <c r="BS7" s="76"/>
+      <c r="BT7" s="66"/>
+      <c r="BU7" s="66"/>
+      <c r="BV7" s="66"/>
+      <c r="BW7" s="66"/>
+      <c r="BX7" s="66"/>
+      <c r="BY7" s="66"/>
+      <c r="BZ7" s="66"/>
+      <c r="CA7" s="66"/>
+      <c r="CB7" s="66"/>
+      <c r="CC7" s="66"/>
+      <c r="CD7" s="66"/>
+      <c r="CE7" s="66"/>
+      <c r="CF7" s="66"/>
+      <c r="CG7" s="66"/>
+      <c r="CH7" s="66"/>
+      <c r="CI7" s="66"/>
+      <c r="CJ7" s="66"/>
+      <c r="CK7" s="66"/>
+      <c r="CL7" s="66"/>
+      <c r="CM7" s="66"/>
+      <c r="CN7" s="66"/>
+      <c r="CO7" s="75"/>
+      <c r="CP7" s="79"/>
+      <c r="CQ7" s="79"/>
+      <c r="CR7" s="76"/>
+      <c r="CS7" s="75"/>
+      <c r="CT7" s="79"/>
+      <c r="CU7" s="79"/>
+      <c r="CV7" s="76"/>
+      <c r="CW7" s="75"/>
+      <c r="CX7" s="79"/>
+      <c r="CY7" s="79"/>
+      <c r="CZ7" s="76"/>
+      <c r="DA7" s="66"/>
+      <c r="DB7" s="66"/>
+      <c r="DC7" s="66"/>
+      <c r="DD7" s="66"/>
+      <c r="DE7" s="66"/>
+      <c r="DF7" s="66"/>
+      <c r="DG7" s="66"/>
+      <c r="DH7" s="75"/>
+      <c r="DI7" s="76"/>
+      <c r="DJ7" s="75"/>
+      <c r="DK7" s="76"/>
+      <c r="DL7" s="75"/>
+      <c r="DM7" s="79"/>
+      <c r="DN7" s="79"/>
+      <c r="DO7" s="79"/>
+      <c r="DP7" s="79"/>
+      <c r="DQ7" s="76"/>
+      <c r="DR7" s="75"/>
+      <c r="DS7" s="79"/>
+      <c r="DT7" s="79"/>
+      <c r="DU7" s="79"/>
+      <c r="DV7" s="79"/>
+      <c r="DW7" s="76"/>
+    </row>
+    <row r="8" spans="1:127">
       <c r="A8" s="4"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="65"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="64"/>
-      <c r="BI8" s="64"/>
-      <c r="BJ8" s="65"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="64"/>
-      <c r="BN8" s="64"/>
-      <c r="BO8" s="64"/>
-      <c r="BP8" s="64"/>
-      <c r="BQ8" s="65"/>
-      <c r="BR8" s="63"/>
-      <c r="BS8" s="65"/>
-      <c r="BT8" s="63"/>
-      <c r="BU8" s="64"/>
-      <c r="BV8" s="64"/>
-      <c r="BW8" s="64"/>
-      <c r="BX8" s="64"/>
-      <c r="BY8" s="64"/>
-      <c r="BZ8" s="65"/>
-      <c r="CA8" s="63"/>
-      <c r="CB8" s="64"/>
-      <c r="CC8" s="64"/>
-      <c r="CD8" s="64"/>
-      <c r="CE8" s="64"/>
-      <c r="CF8" s="64"/>
-      <c r="CG8" s="65"/>
-      <c r="CH8" s="63"/>
-      <c r="CI8" s="64"/>
-      <c r="CJ8" s="64"/>
-      <c r="CK8" s="64"/>
-      <c r="CL8" s="64"/>
-      <c r="CM8" s="64"/>
-      <c r="CN8" s="65"/>
-      <c r="CO8" s="63"/>
-      <c r="CP8" s="64"/>
-      <c r="CQ8" s="64"/>
-      <c r="CR8" s="65"/>
-      <c r="CS8" s="63"/>
-      <c r="CT8" s="64"/>
-      <c r="CU8" s="64"/>
-      <c r="CV8" s="65"/>
-      <c r="CW8" s="63"/>
-      <c r="CX8" s="64"/>
-      <c r="CY8" s="64"/>
-      <c r="CZ8" s="65"/>
-      <c r="DA8" s="73"/>
-      <c r="DB8" s="74"/>
-      <c r="DC8" s="74"/>
-      <c r="DD8" s="74"/>
-      <c r="DE8" s="74"/>
-      <c r="DF8" s="74"/>
-      <c r="DG8" s="75"/>
-      <c r="DH8" s="63"/>
-      <c r="DI8" s="65"/>
-      <c r="DJ8" s="63"/>
-      <c r="DK8" s="65"/>
-      <c r="DL8" s="63"/>
-      <c r="DM8" s="64"/>
-      <c r="DN8" s="64"/>
-      <c r="DO8" s="64"/>
-      <c r="DP8" s="64"/>
-      <c r="DQ8" s="65"/>
-      <c r="DR8" s="63"/>
-      <c r="DS8" s="64"/>
-      <c r="DT8" s="64"/>
-      <c r="DU8" s="64"/>
-      <c r="DV8" s="64"/>
-      <c r="DW8" s="65"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="68"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="68"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
+      <c r="BP8" s="68"/>
+      <c r="BQ8" s="69"/>
+      <c r="BR8" s="67"/>
+      <c r="BS8" s="69"/>
+      <c r="BT8" s="67"/>
+      <c r="BU8" s="68"/>
+      <c r="BV8" s="68"/>
+      <c r="BW8" s="68"/>
+      <c r="BX8" s="68"/>
+      <c r="BY8" s="68"/>
+      <c r="BZ8" s="69"/>
+      <c r="CA8" s="67"/>
+      <c r="CB8" s="68"/>
+      <c r="CC8" s="68"/>
+      <c r="CD8" s="68"/>
+      <c r="CE8" s="68"/>
+      <c r="CF8" s="68"/>
+      <c r="CG8" s="69"/>
+      <c r="CH8" s="67"/>
+      <c r="CI8" s="68"/>
+      <c r="CJ8" s="68"/>
+      <c r="CK8" s="68"/>
+      <c r="CL8" s="68"/>
+      <c r="CM8" s="68"/>
+      <c r="CN8" s="69"/>
+      <c r="CO8" s="67"/>
+      <c r="CP8" s="68"/>
+      <c r="CQ8" s="68"/>
+      <c r="CR8" s="69"/>
+      <c r="CS8" s="67"/>
+      <c r="CT8" s="68"/>
+      <c r="CU8" s="68"/>
+      <c r="CV8" s="69"/>
+      <c r="CW8" s="67"/>
+      <c r="CX8" s="68"/>
+      <c r="CY8" s="68"/>
+      <c r="CZ8" s="69"/>
+      <c r="DA8" s="86"/>
+      <c r="DB8" s="87"/>
+      <c r="DC8" s="87"/>
+      <c r="DD8" s="87"/>
+      <c r="DE8" s="87"/>
+      <c r="DF8" s="87"/>
+      <c r="DG8" s="88"/>
+      <c r="DH8" s="67"/>
+      <c r="DI8" s="69"/>
+      <c r="DJ8" s="67"/>
+      <c r="DK8" s="69"/>
+      <c r="DL8" s="67"/>
+      <c r="DM8" s="68"/>
+      <c r="DN8" s="68"/>
+      <c r="DO8" s="68"/>
+      <c r="DP8" s="68"/>
+      <c r="DQ8" s="69"/>
+      <c r="DR8" s="67"/>
+      <c r="DS8" s="68"/>
+      <c r="DT8" s="68"/>
+      <c r="DU8" s="68"/>
+      <c r="DV8" s="68"/>
+      <c r="DW8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="BK6:BQ7"/>
-    <mergeCell ref="BK8:BQ8"/>
-    <mergeCell ref="CA8:CG8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AN8"/>
-    <mergeCell ref="AO8:AZ8"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="BT6:BZ7"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="BC6:BD7"/>
-    <mergeCell ref="AO6:AZ7"/>
-    <mergeCell ref="BE6:BF7"/>
-    <mergeCell ref="BG8:BJ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BZ8"/>
-    <mergeCell ref="BG6:BJ7"/>
-    <mergeCell ref="BA6:BB7"/>
-    <mergeCell ref="X6:Z7"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:J7"/>
-    <mergeCell ref="K6:Q7"/>
-    <mergeCell ref="AA6:AB7"/>
-    <mergeCell ref="AC6:AN7"/>
+    <mergeCell ref="DR8:DW8"/>
+    <mergeCell ref="DL8:DQ8"/>
+    <mergeCell ref="CW8:CZ8"/>
+    <mergeCell ref="CS8:CV8"/>
+    <mergeCell ref="CO8:CR8"/>
+    <mergeCell ref="CH8:CN8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="DR6:DW7"/>
+    <mergeCell ref="DL6:DQ7"/>
+    <mergeCell ref="DJ6:DK7"/>
+    <mergeCell ref="DJ8:DK8"/>
+    <mergeCell ref="DH6:DI7"/>
+    <mergeCell ref="DH8:DI8"/>
+    <mergeCell ref="DA6:DG7"/>
+    <mergeCell ref="DA8:DG8"/>
+    <mergeCell ref="CA6:CG7"/>
+    <mergeCell ref="CH6:CN7"/>
+    <mergeCell ref="BR6:BS7"/>
+    <mergeCell ref="CW6:CZ7"/>
+    <mergeCell ref="CO6:CR7"/>
+    <mergeCell ref="CS6:CV7"/>
     <mergeCell ref="AR3:AU3"/>
     <mergeCell ref="R6:W7"/>
     <mergeCell ref="AR1:AU1"/>
@@ -7924,27 +7915,37 @@
     <mergeCell ref="AB2:AM2"/>
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="CH8:CN8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="DR6:DW7"/>
-    <mergeCell ref="DL6:DQ7"/>
-    <mergeCell ref="DJ6:DK7"/>
-    <mergeCell ref="DJ8:DK8"/>
-    <mergeCell ref="DH6:DI7"/>
-    <mergeCell ref="DH8:DI8"/>
-    <mergeCell ref="DA6:DG7"/>
-    <mergeCell ref="DA8:DG8"/>
-    <mergeCell ref="CA6:CG7"/>
-    <mergeCell ref="CH6:CN7"/>
-    <mergeCell ref="BR6:BS7"/>
-    <mergeCell ref="CW6:CZ7"/>
-    <mergeCell ref="CO6:CR7"/>
-    <mergeCell ref="CS6:CV7"/>
-    <mergeCell ref="DR8:DW8"/>
-    <mergeCell ref="DL8:DQ8"/>
-    <mergeCell ref="CW8:CZ8"/>
-    <mergeCell ref="CS8:CV8"/>
-    <mergeCell ref="CO8:CR8"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:J7"/>
+    <mergeCell ref="K6:Q7"/>
+    <mergeCell ref="AA6:AB7"/>
+    <mergeCell ref="AC6:AN7"/>
+    <mergeCell ref="BT6:BZ7"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="BC6:BD7"/>
+    <mergeCell ref="AO6:AZ7"/>
+    <mergeCell ref="BE6:BF7"/>
+    <mergeCell ref="BG8:BJ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BZ8"/>
+    <mergeCell ref="BG6:BJ7"/>
+    <mergeCell ref="BA6:BB7"/>
+    <mergeCell ref="X6:Z7"/>
+    <mergeCell ref="CA8:CG8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AN8"/>
+    <mergeCell ref="AO8:AZ8"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="BK6:BQ7"/>
+    <mergeCell ref="BK8:BQ8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="7">
@@ -7987,122 +7988,122 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="H1" s="51" t="s">
+    <row r="1" spans="1:48">
+      <c r="H1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="45" t="str">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="49" t="str">
         <f>表紙!N29</f>
         <v>システム名を書く</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="51" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="45" t="str">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="49" t="str">
         <f>表紙!N31</f>
         <v>myidentitytec05__JavaUnitTest__c</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="51" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="52">
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="62">
         <v>42354</v>
       </c>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="H2" s="51" t="s">
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+    </row>
+    <row r="2" spans="1:48">
+      <c r="H2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="45" t="str">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="49" t="str">
         <f>表紙!G7</f>
         <v>オブジェクト定義書</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="51" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="45" t="str">
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="49" t="str">
         <f>表紙!N33</f>
         <v>Java単体試験</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+    </row>
+    <row r="3" spans="1:48">
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -8119,39 +8120,39 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="45" t="str">
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="49" t="str">
         <f ca="1">MID(CELL("filename",$A$1),FIND("]",CELL("filename",$A$1))+1,31)</f>
         <v>選択リスト定義</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="51" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+    </row>
+    <row r="4" spans="1:48">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -8184,90 +8185,90 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-      <c r="AN4" s="51" t="s">
+      <c r="AN4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-    </row>
-    <row r="6" spans="1:48" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+    </row>
+    <row r="6" spans="1:48" ht="20.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="68"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="68"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="74"/>
       <c r="R6" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="72" t="s">
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+    </row>
+    <row r="7" spans="1:48">
       <c r="A7" s="4"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="65"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="69"/>
       <c r="Z7" s="89"/>
       <c r="AA7" s="90"/>
       <c r="AB7" s="90"/>
       <c r="AC7" s="91"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:48">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8317,7 +8318,7 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -8367,7 +8368,7 @@
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:48">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -8417,7 +8418,7 @@
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:48">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -8467,7 +8468,7 @@
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -8517,7 +8518,7 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -8567,7 +8568,7 @@
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:48">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -8617,7 +8618,7 @@
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -8667,7 +8668,7 @@
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48">
       <c r="A16" s="29"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -8717,7 +8718,7 @@
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:48">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -8767,7 +8768,7 @@
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:48">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -8817,7 +8818,7 @@
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:48">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -8867,7 +8868,7 @@
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:48">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -8917,7 +8918,7 @@
       <c r="AU20" s="4"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:48">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -8967,7 +8968,7 @@
       <c r="AU21" s="4"/>
       <c r="AV21" s="4"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:48">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -9017,7 +9018,7 @@
       <c r="AU22" s="4"/>
       <c r="AV22" s="4"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:48">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -9069,22 +9070,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="R6:Y6"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:W2"/>
@@ -9097,6 +9082,22 @@
     <mergeCell ref="AB2:AM2"/>
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -9121,122 +9122,122 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="H1" s="51" t="s">
+    <row r="1" spans="1:48">
+      <c r="H1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="45" t="str">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="49" t="str">
         <f>表紙!N29</f>
         <v>システム名を書く</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="51" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="45" t="str">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="49" t="str">
         <f>表紙!N31</f>
         <v>myidentitytec05__JavaUnitTest__c</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="51" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="52">
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="62">
         <v>42354</v>
       </c>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="H2" s="51" t="s">
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+    </row>
+    <row r="2" spans="1:48">
+      <c r="H2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="45" t="str">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="49" t="str">
         <f>表紙!G7</f>
         <v>オブジェクト定義書</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="51" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="45" t="str">
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="49" t="str">
         <f>表紙!N33</f>
         <v>Java単体試験</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+    </row>
+    <row r="3" spans="1:48">
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9253,39 +9254,39 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="45" t="str">
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="49" t="str">
         <f ca="1">MID(CELL("filename",$A$1),FIND("]",CELL("filename",$A$1))+1,31)</f>
         <v>CRUD権限</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="51" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+    </row>
+    <row r="4" spans="1:48">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -9318,70 +9319,70 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-      <c r="AN4" s="51" t="s">
+      <c r="AN4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-    </row>
-    <row r="6" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+    </row>
+    <row r="6" spans="1:48" ht="23.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="51" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51" t="s">
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51" t="s">
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51" t="s">
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51" t="s">
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51" t="s">
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-    </row>
-    <row r="7" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+    </row>
+    <row r="7" spans="1:48" ht="16.5" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="92"/>
       <c r="C7" s="92"/>
@@ -9392,30 +9393,30 @@
       <c r="H7" s="94"/>
       <c r="I7" s="94"/>
       <c r="J7" s="95"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
       <c r="AI7" s="28"/>
       <c r="AJ7" s="28"/>
       <c r="AK7" s="28"/>
@@ -9433,6 +9434,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AE6:AH6"/>
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="AA7:AD7"/>
@@ -9449,24 +9468,6 @@
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:W2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9484,122 +9485,122 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="H1" s="51" t="s">
+    <row r="1" spans="1:48">
+      <c r="H1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="45" t="str">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="49" t="str">
         <f>表紙!N29</f>
         <v>システム名を書く</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="51" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="45" t="str">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="49" t="str">
         <f>表紙!N31</f>
         <v>myidentitytec05__JavaUnitTest__c</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="51" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="52">
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="62">
         <v>42354</v>
       </c>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="H2" s="51" t="s">
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+    </row>
+    <row r="2" spans="1:48">
+      <c r="H2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="45" t="str">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="49" t="str">
         <f>表紙!G7</f>
         <v>オブジェクト定義書</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="51" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="45" t="str">
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="49" t="str">
         <f>表紙!N33</f>
         <v>Java単体試験</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+    </row>
+    <row r="3" spans="1:48">
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9616,39 +9617,39 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="45" t="str">
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="49" t="str">
         <f ca="1">MID(CELL("filename",$A$1),FIND("]",CELL("filename",$A$1))+1,31)</f>
         <v>項目アクセス許可</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="51" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+    </row>
+    <row r="4" spans="1:48">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -9681,18 +9682,18 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-      <c r="AN4" s="51" t="s">
+      <c r="AN4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+    </row>
+    <row r="6" spans="1:48">
       <c r="A6" s="4"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -9703,74 +9704,74 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
       <c r="AF6" s="31"/>
       <c r="AG6" s="31"/>
       <c r="AH6" s="31"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:48">
       <c r="A7" s="4"/>
       <c r="B7" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
       <c r="AF7" s="31"/>
       <c r="AG7" s="31"/>
       <c r="AH7" s="31"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:48">
       <c r="A8" s="4"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
@@ -9822,23 +9823,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="Y7:AE7"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="R8:X8"/>
-    <mergeCell ref="Y8:AE8"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="R7:X7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="K6:AE6"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="H1:K1"/>
@@ -9851,6 +9835,23 @@
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AM2"/>
     <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="K6:AE6"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="Y7:AE7"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="R8:X8"/>
+    <mergeCell ref="Y8:AE8"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="R7:X7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
